--- a/target/classes/com/qa/clearpc/testdata/PCtenantsTestData.xlsx
+++ b/target/classes/com/qa/clearpc/testdata/PCtenantsTestData.xlsx
@@ -5,15 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData-1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="mailProps-1" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="LoginData" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="mailProps" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="ApplyAllFilters" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="shareAssetLoc" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="mailProps_3" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="ApplyAllFilters" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="shareAssetLoc" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="getShareAssetData" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="externalUserAssetShare" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -54,7 +57,7 @@
     <t xml:space="preserve">shilpashree.k@primefocus.com</t>
   </si>
   <si>
-    <t xml:space="preserve">SAURXCUSYTYDJIZQ</t>
+    <t xml:space="preserve">GMYZMCPOCZBNMMXG </t>
   </si>
   <si>
     <t xml:space="preserve">noreply@clearnotifications.com</t>
@@ -139,14 +142,45 @@
   </si>
   <si>
     <t xml:space="preserve">COPY LINK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EndDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-03-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EndShare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smtp.gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primefocusautomation@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prime@2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-03-2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -214,7 +248,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,7 +258,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9999FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <bgColor rgb="FF729FCF"/>
       </patternFill>
     </fill>
     <fill>
@@ -237,6 +271,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -274,7 +314,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,18 +332,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -311,7 +339,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,7 +421,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -446,7 +494,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -487,13 +535,13 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -519,7 +567,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -565,7 +613,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -595,20 +643,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -627,6 +675,75 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="shilpashree.k@primefocus.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -646,13 +763,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -712,10 +829,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -726,7 +843,7 @@
       <c r="A8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -744,25 +861,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -785,4 +902,121 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="shilpashree.k@primefocus.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Primefocusautomation@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId2" display="Prime@2020"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>